--- a/导入导出模板参考样本/导出模板.xlsx
+++ b/导入导出模板参考样本/导出模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC8553-F16E-43C2-8899-9880F045B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC35070-0094-439F-9770-08C64ABE6478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>&lt;asd&gt;信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,18 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZsImport.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsImport.id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsImport.birthDay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ZsImport2.qian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,10 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">名字 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsImport.name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -198,6 +182,25 @@
   </si>
   <si>
     <t>ZsImport2.remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthDay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bao_ZsImport-id</t>
+  </si>
+  <si>
+    <t>bao_ZsImport-name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -352,19 +355,19 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -648,7 +651,7 @@
   <dimension ref="B1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,23 +668,23 @@
   <sheetData>
     <row r="1" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="2:28" ht="28.2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -694,16 +697,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -730,37 +733,37 @@
         <v>11</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AB3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,28 +771,28 @@
     </row>
     <row r="5" spans="2:28" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -819,23 +822,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -845,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -854,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -890,16 +893,16 @@
     <row r="4" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/导入导出模板参考样本/导出模板.xlsx
+++ b/导入导出模板参考样本/导出模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC35070-0094-439F-9770-08C64ABE6478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138A630-6713-4F23-95D7-4DC2F1D6C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lanliya" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>&lt;asd&gt;信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,14 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZsImport2.qian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsImport2.birthDay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ZsImport.qian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -173,15 +165,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ZsImport2.name     </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsImport2.remark</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -201,6 +185,25 @@
   </si>
   <si>
     <t>bao_ZsImport-name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZsTestPO.remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ZsImport2-name     </t>
+  </si>
+  <si>
+    <t>ZsImport2-qian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZsImport2-birthDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZsImport2-remark</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -662,6 +665,7 @@
     <col min="6" max="6" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="27" max="27" width="13.77734375" customWidth="1"/>
     <col min="28" max="28" width="15.21875" customWidth="1"/>
   </cols>
@@ -697,19 +701,19 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>5</v>
@@ -733,37 +737,37 @@
         <v>11</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="AB3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,28 +775,31 @@
     </row>
     <row r="5" spans="2:28" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -809,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1712A690-FF1A-466E-B96A-EB882E76E144}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -848,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -857,7 +864,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -893,16 +900,16 @@
     <row r="4" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/导入导出模板参考样本/导出模板.xlsx
+++ b/导入导出模板参考样本/导出模板.xlsx
@@ -1,51 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138A630-6713-4F23-95D7-4DC2F1D6C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="lanliya" sheetId="1" r:id="rId1"/>
     <sheet name="第二个" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>&lt;asd&gt;信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>车型</t>
-  </si>
-  <si>
-    <t>&lt;asd&gt;车次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行区段</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>qiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名字 </t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>ZsTestPO.remark</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>总里程</t>
     </r>
     <r>
@@ -53,7 +58,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(km)</t>
     </r>
@@ -77,200 +82,288 @@
     <t>担当所</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>qian</t>
+  </si>
+  <si>
+    <t>bao_ZsImport-id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birthDay</t>
+  </si>
+  <si>
+    <t>bao_ZsImport-name</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>Zs</t>
+  </si>
+  <si>
+    <t>ZsImport.qian</t>
+  </si>
+  <si>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>名字</t>
   </si>
   <si>
     <t>金钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsImport.qian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">名字 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthDay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao_ZsImport-id</t>
-  </si>
-  <si>
-    <t>bao_ZsImport-name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZsTestPO.remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;asd&gt;车次</t>
+  </si>
+  <si>
+    <t>运行区段</t>
   </si>
   <si>
     <t xml:space="preserve">ZsImport2-name     </t>
   </si>
   <si>
     <t>ZsImport2-qian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ZsImport2-birthDay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ZsImport2-remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +376,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -336,53 +615,339 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,7 +996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -466,7 +1031,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -640,284 +1205,280 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.77734375" customWidth="1"/>
-    <col min="28" max="28" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="37.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="29.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="14.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="18.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.6666666666667" customWidth="1"/>
+    <col min="27" max="27" width="13.7777777777778" customWidth="1"/>
+    <col min="28" max="28" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="1" ht="30" customHeight="1"/>
+    <row r="2" ht="30" spans="2:16">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:28" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" ht="28.8" spans="2:28">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="S3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="53.4" customHeight="1" spans="5:5">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="85.8" customHeight="1" spans="3:28">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:28" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="AA5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" t="s">
         <v>34</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1712A690-FF1A-466E-B96A-EB882E76E144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="30" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="28.8" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
+    <row r="3" spans="4:4">
+      <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" ht="37.8" customHeight="1" spans="2:6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>